--- a/templates/display.xlsx
+++ b/templates/display.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="Direct" sheetId="16" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Total" sheetId="15" r:id="rId4"/>
     <sheet name="SUM" sheetId="31" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -439,660 +436,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Total"/>
-      <sheetName val="Search"/>
-      <sheetName val="Display"/>
-      <sheetName val="Online VDO"/>
-      <sheetName val="YouTube"/>
-      <sheetName val="Facebook"/>
-      <sheetName val="Instagram"/>
-      <sheetName val="Twitter"/>
-      <sheetName val="Line"/>
-      <sheetName val="Instant Messaging"/>
-      <sheetName val="Social"/>
-      <sheetName val="Creative"/>
-      <sheetName val="Others"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-          <cell r="D32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>0</v>
-          </cell>
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-          <cell r="D36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>0</v>
-          </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-          <cell r="D37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0</v>
-          </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-          <cell r="D39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-          <cell r="D41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>0</v>
-          </cell>
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-          <cell r="D42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0</v>
-          </cell>
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-          <cell r="D44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0</v>
-          </cell>
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-          <cell r="D45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0</v>
-          </cell>
-          <cell r="C46">
-            <v>0</v>
-          </cell>
-          <cell r="D46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0</v>
-          </cell>
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-          <cell r="D47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>0</v>
-          </cell>
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-          <cell r="D48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>0</v>
-          </cell>
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-          <cell r="D49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0</v>
-          </cell>
-          <cell r="C50">
-            <v>0</v>
-          </cell>
-          <cell r="D50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>0</v>
-          </cell>
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-          <cell r="D51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>0</v>
-          </cell>
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-          <cell r="D52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0</v>
-          </cell>
-          <cell r="C53">
-            <v>0</v>
-          </cell>
-          <cell r="D53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>0</v>
-          </cell>
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-          <cell r="D54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>0</v>
-          </cell>
-          <cell r="C55">
-            <v>0</v>
-          </cell>
-          <cell r="D55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>0</v>
-          </cell>
-          <cell r="C56">
-            <v>0</v>
-          </cell>
-          <cell r="D56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>0</v>
-          </cell>
-          <cell r="C57">
-            <v>0</v>
-          </cell>
-          <cell r="D57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>0</v>
-          </cell>
-          <cell r="C58">
-            <v>0</v>
-          </cell>
-          <cell r="D58">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1382,10 +725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF123"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63:AE118"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3749,18 +3092,9 @@
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="7">
-        <f>B3*[1]Display!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="7">
-        <f>C3*[1]Display!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="7">
-        <f>D3*[1]Display!D3</f>
-        <v>0</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -3797,18 +3131,9 @@
       <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="7">
-        <f>B4*[1]Display!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="7">
-        <f>C4*[1]Display!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="7">
-        <f>D4*[1]Display!D4</f>
-        <v>0</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -3845,18 +3170,9 @@
       <c r="A65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="7">
-        <f>B5*[1]Display!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="7">
-        <f>C5*[1]Display!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
-        <f>D5*[1]Display!D5</f>
-        <v>0</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -3893,18 +3209,9 @@
       <c r="A66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="7">
-        <f>B6*[1]Display!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="7">
-        <f>C6*[1]Display!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="7">
-        <f>D6*[1]Display!D6</f>
-        <v>0</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -3941,18 +3248,9 @@
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="7">
-        <f>B7*[1]Display!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="7">
-        <f>C7*[1]Display!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="7">
-        <f>D7*[1]Display!D7</f>
-        <v>0</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -3989,18 +3287,9 @@
       <c r="A68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="7">
-        <f>B8*[1]Display!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="7">
-        <f>C8*[1]Display!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="7">
-        <f>D8*[1]Display!D8</f>
-        <v>0</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -4037,18 +3326,9 @@
       <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="7">
-        <f>B9*[1]Display!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="7">
-        <f>C9*[1]Display!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="7">
-        <f>D9*[1]Display!D9</f>
-        <v>0</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -4085,18 +3365,9 @@
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="7">
-        <f>B10*[1]Display!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="7">
-        <f>C10*[1]Display!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="7">
-        <f>D10*[1]Display!D10</f>
-        <v>0</v>
-      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -4133,18 +3404,9 @@
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7">
-        <f>B11*[1]Display!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="7">
-        <f>C11*[1]Display!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="7">
-        <f>D11*[1]Display!D11</f>
-        <v>0</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -4181,18 +3443,9 @@
       <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="7">
-        <f>B12*[1]Display!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="7">
-        <f>C12*[1]Display!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="7">
-        <f>D12*[1]Display!D12</f>
-        <v>0</v>
-      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -4229,18 +3482,9 @@
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="7">
-        <f>B13*[1]Display!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="7">
-        <f>C13*[1]Display!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="7">
-        <f>D13*[1]Display!D13</f>
-        <v>0</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -4277,18 +3521,9 @@
       <c r="A74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="7">
-        <f>B14*[1]Display!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="7">
-        <f>C14*[1]Display!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="7">
-        <f>D14*[1]Display!D14</f>
-        <v>0</v>
-      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -4325,18 +3560,9 @@
       <c r="A75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="7">
-        <f>B15*[1]Display!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="7">
-        <f>C15*[1]Display!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="7">
-        <f>D15*[1]Display!D15</f>
-        <v>0</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -4373,18 +3599,9 @@
       <c r="A76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="7">
-        <f>B16*[1]Display!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="7">
-        <f>C16*[1]Display!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="7">
-        <f>D16*[1]Display!D16</f>
-        <v>0</v>
-      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -4421,18 +3638,9 @@
       <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="7">
-        <f>B17*[1]Display!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C77" s="7">
-        <f>C17*[1]Display!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="7">
-        <f>D17*[1]Display!D17</f>
-        <v>0</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -4469,18 +3677,9 @@
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="7">
-        <f>B18*[1]Display!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="7">
-        <f>C18*[1]Display!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="7">
-        <f>D18*[1]Display!D18</f>
-        <v>0</v>
-      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -4517,18 +3716,9 @@
       <c r="A79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
-        <f>B19*[1]Display!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="7">
-        <f>C19*[1]Display!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="7">
-        <f>D19*[1]Display!D19</f>
-        <v>0</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -4565,18 +3755,9 @@
       <c r="A80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="7">
-        <f>B20*[1]Display!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="7">
-        <f>C20*[1]Display!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="7">
-        <f>D20*[1]Display!D20</f>
-        <v>0</v>
-      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -4613,18 +3794,9 @@
       <c r="A81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="7">
-        <f>B21*[1]Display!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="7">
-        <f>C21*[1]Display!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="7">
-        <f>D21*[1]Display!D21</f>
-        <v>0</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -4661,18 +3833,9 @@
       <c r="A82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="7">
-        <f>B22*[1]Display!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="7">
-        <f>C22*[1]Display!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="7">
-        <f>D22*[1]Display!D22</f>
-        <v>0</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -4709,18 +3872,9 @@
       <c r="A83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="7">
-        <f>B23*[1]Display!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="7">
-        <f>C23*[1]Display!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="7">
-        <f>D23*[1]Display!D23</f>
-        <v>0</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -4757,18 +3911,9 @@
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="7">
-        <f>B24*[1]Display!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="7">
-        <f>C24*[1]Display!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="7">
-        <f>D24*[1]Display!D24</f>
-        <v>0</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -4805,18 +3950,9 @@
       <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="7">
-        <f>B25*[1]Display!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="7">
-        <f>C25*[1]Display!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="7">
-        <f>D25*[1]Display!D25</f>
-        <v>0</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -4853,18 +3989,9 @@
       <c r="A86" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="7">
-        <f>B26*[1]Display!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="7">
-        <f>C26*[1]Display!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="7">
-        <f>D26*[1]Display!D26</f>
-        <v>0</v>
-      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -4901,18 +4028,9 @@
       <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="7">
-        <f>B27*[1]Display!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="7">
-        <f>C27*[1]Display!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="7">
-        <f>D27*[1]Display!D27</f>
-        <v>0</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -4949,18 +4067,9 @@
       <c r="A88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="7">
-        <f>B28*[1]Display!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="7">
-        <f>C28*[1]Display!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="7">
-        <f>D28*[1]Display!D28</f>
-        <v>0</v>
-      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -4997,18 +4106,9 @@
       <c r="A89" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="7">
-        <f>B29*[1]Display!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="7">
-        <f>C29*[1]Display!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="7">
-        <f>D29*[1]Display!D29</f>
-        <v>0</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -5045,18 +4145,9 @@
       <c r="A90" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="7">
-        <f>B30*[1]Display!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="7">
-        <f>C30*[1]Display!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="7">
-        <f>D30*[1]Display!D30</f>
-        <v>0</v>
-      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -5093,18 +4184,9 @@
       <c r="A91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="7">
-        <f>B31*[1]Display!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="7">
-        <f>C31*[1]Display!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="7">
-        <f>D31*[1]Display!D31</f>
-        <v>0</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5141,18 +4223,9 @@
       <c r="A92" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="7">
-        <f>B32*[1]Display!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="7">
-        <f>C32*[1]Display!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="7">
-        <f>D32*[1]Display!D32</f>
-        <v>0</v>
-      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -5189,18 +4262,9 @@
       <c r="A93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="7">
-        <f>B33*[1]Display!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="7">
-        <f>C33*[1]Display!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="7">
-        <f>D33*[1]Display!D33</f>
-        <v>0</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -5237,18 +4301,9 @@
       <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="7">
-        <f>B34*[1]Display!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="7">
-        <f>C34*[1]Display!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="7">
-        <f>D34*[1]Display!D34</f>
-        <v>0</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -5285,18 +4340,9 @@
       <c r="A95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="7">
-        <f>B35*[1]Display!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="7">
-        <f>C35*[1]Display!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="7">
-        <f>D35*[1]Display!D35</f>
-        <v>0</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -5333,18 +4379,9 @@
       <c r="A96" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="7">
-        <f>B36*[1]Display!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="7">
-        <f>C36*[1]Display!C36</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="7">
-        <f>D36*[1]Display!D36</f>
-        <v>0</v>
-      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -5381,18 +4418,9 @@
       <c r="A97" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="7">
-        <f>B37*[1]Display!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="7">
-        <f>C37*[1]Display!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="7">
-        <f>D37*[1]Display!D37</f>
-        <v>0</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -5429,18 +4457,9 @@
       <c r="A98" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="7">
-        <f>B38*[1]Display!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="7">
-        <f>C38*[1]Display!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="7">
-        <f>D38*[1]Display!D38</f>
-        <v>0</v>
-      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -5477,18 +4496,9 @@
       <c r="A99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="7">
-        <f>B39*[1]Display!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="7">
-        <f>C39*[1]Display!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="7">
-        <f>D39*[1]Display!D39</f>
-        <v>0</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -5525,18 +4535,9 @@
       <c r="A100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="7">
-        <f>B40*[1]Display!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="7">
-        <f>C40*[1]Display!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="7">
-        <f>D40*[1]Display!D40</f>
-        <v>0</v>
-      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -5573,18 +4574,9 @@
       <c r="A101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="7">
-        <f>B41*[1]Display!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="7">
-        <f>C41*[1]Display!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="7">
-        <f>D41*[1]Display!D41</f>
-        <v>0</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -5621,18 +4613,9 @@
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="7">
-        <f>B42*[1]Display!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="7">
-        <f>C42*[1]Display!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="7">
-        <f>D42*[1]Display!D42</f>
-        <v>0</v>
-      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -5669,18 +4652,9 @@
       <c r="A103" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="7">
-        <f>B43*[1]Display!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="7">
-        <f>C43*[1]Display!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="7">
-        <f>D43*[1]Display!D43</f>
-        <v>0</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -5717,18 +4691,9 @@
       <c r="A104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="7">
-        <f>B44*[1]Display!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="7">
-        <f>C44*[1]Display!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <f>D44*[1]Display!D44</f>
-        <v>0</v>
-      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -5765,18 +4730,9 @@
       <c r="A105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="7">
-        <f>B45*[1]Display!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="7">
-        <f>C45*[1]Display!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="7">
-        <f>D45*[1]Display!D45</f>
-        <v>0</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -5813,18 +4769,9 @@
       <c r="A106" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B106" s="7">
-        <f>B46*[1]Display!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="7">
-        <f>C46*[1]Display!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="7">
-        <f>D46*[1]Display!D46</f>
-        <v>0</v>
-      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -5861,18 +4808,9 @@
       <c r="A107" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="7">
-        <f>B47*[1]Display!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="7">
-        <f>C47*[1]Display!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="7">
-        <f>D47*[1]Display!D47</f>
-        <v>0</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -5909,18 +4847,9 @@
       <c r="A108" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="7">
-        <f>B48*[1]Display!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C108" s="7">
-        <f>C48*[1]Display!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D108" s="7">
-        <f>D48*[1]Display!D48</f>
-        <v>0</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -5957,18 +4886,9 @@
       <c r="A109" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="7">
-        <f>B49*[1]Display!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="7">
-        <f>C49*[1]Display!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D109" s="7">
-        <f>D49*[1]Display!D49</f>
-        <v>0</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -6005,18 +4925,9 @@
       <c r="A110" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="7">
-        <f>B50*[1]Display!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="7">
-        <f>C50*[1]Display!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="7">
-        <f>D50*[1]Display!D50</f>
-        <v>0</v>
-      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -6053,18 +4964,9 @@
       <c r="A111" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="7">
-        <f>B51*[1]Display!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C111" s="7">
-        <f>C51*[1]Display!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="7">
-        <f>D51*[1]Display!D51</f>
-        <v>0</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -6101,18 +5003,9 @@
       <c r="A112" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="7">
-        <f>B52*[1]Display!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C112" s="7">
-        <f>C52*[1]Display!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="7">
-        <f>D52*[1]Display!D52</f>
-        <v>0</v>
-      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
@@ -6149,18 +5042,9 @@
       <c r="A113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="7">
-        <f>B53*[1]Display!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="7">
-        <f>C53*[1]Display!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="7">
-        <f>D53*[1]Display!D53</f>
-        <v>0</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -6197,18 +5081,9 @@
       <c r="A114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="7">
-        <f>B54*[1]Display!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C114" s="7">
-        <f>C54*[1]Display!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="7">
-        <f>D54*[1]Display!D54</f>
-        <v>0</v>
-      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -6245,18 +5120,9 @@
       <c r="A115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="7">
-        <f>B55*[1]Display!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="7">
-        <f>C55*[1]Display!C55</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="7">
-        <f>D55*[1]Display!D55</f>
-        <v>0</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -6293,18 +5159,9 @@
       <c r="A116" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="7">
-        <f>B56*[1]Display!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="7">
-        <f>C56*[1]Display!C56</f>
-        <v>0</v>
-      </c>
-      <c r="D116" s="7">
-        <f>D56*[1]Display!D56</f>
-        <v>0</v>
-      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -6341,18 +5198,9 @@
       <c r="A117" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="7">
-        <f>B57*[1]Display!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="7">
-        <f>C57*[1]Display!C57</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="7">
-        <f>D57*[1]Display!D57</f>
-        <v>0</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -6389,18 +5237,9 @@
       <c r="A118" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B118" s="7">
-        <f>B58*[1]Display!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="7">
-        <f>C58*[1]Display!C58</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="7">
-        <f>D58*[1]Display!D58</f>
-        <v>0</v>
-      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -6446,6 +5285,7 @@
     <dataValidation allowBlank="1" sqref="A1 A3:A61 A63:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6453,10 +5293,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63:AE118"/>
+      <selection pane="topRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8820,18 +7660,9 @@
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="7">
-        <f>B3*[1]Display!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="7">
-        <f>C3*[1]Display!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="7">
-        <f>D3*[1]Display!D3</f>
-        <v>0</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -8868,18 +7699,9 @@
       <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="7">
-        <f>B4*[1]Display!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="7">
-        <f>C4*[1]Display!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="7">
-        <f>D4*[1]Display!D4</f>
-        <v>0</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -8916,18 +7738,9 @@
       <c r="A65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="7">
-        <f>B5*[1]Display!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="7">
-        <f>C5*[1]Display!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
-        <f>D5*[1]Display!D5</f>
-        <v>0</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -8964,18 +7777,9 @@
       <c r="A66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="7">
-        <f>B6*[1]Display!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="7">
-        <f>C6*[1]Display!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="7">
-        <f>D6*[1]Display!D6</f>
-        <v>0</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -9012,18 +7816,9 @@
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="7">
-        <f>B7*[1]Display!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="7">
-        <f>C7*[1]Display!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="7">
-        <f>D7*[1]Display!D7</f>
-        <v>0</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -9060,18 +7855,9 @@
       <c r="A68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="7">
-        <f>B8*[1]Display!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="7">
-        <f>C8*[1]Display!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="7">
-        <f>D8*[1]Display!D8</f>
-        <v>0</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -9108,18 +7894,9 @@
       <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="7">
-        <f>B9*[1]Display!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="7">
-        <f>C9*[1]Display!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="7">
-        <f>D9*[1]Display!D9</f>
-        <v>0</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -9156,18 +7933,9 @@
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="7">
-        <f>B10*[1]Display!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="7">
-        <f>C10*[1]Display!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="7">
-        <f>D10*[1]Display!D10</f>
-        <v>0</v>
-      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -9204,18 +7972,9 @@
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7">
-        <f>B11*[1]Display!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="7">
-        <f>C11*[1]Display!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="7">
-        <f>D11*[1]Display!D11</f>
-        <v>0</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -9252,18 +8011,9 @@
       <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="7">
-        <f>B12*[1]Display!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="7">
-        <f>C12*[1]Display!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="7">
-        <f>D12*[1]Display!D12</f>
-        <v>0</v>
-      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -9300,18 +8050,9 @@
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="7">
-        <f>B13*[1]Display!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="7">
-        <f>C13*[1]Display!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="7">
-        <f>D13*[1]Display!D13</f>
-        <v>0</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -9348,18 +8089,9 @@
       <c r="A74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="7">
-        <f>B14*[1]Display!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="7">
-        <f>C14*[1]Display!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="7">
-        <f>D14*[1]Display!D14</f>
-        <v>0</v>
-      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -9396,18 +8128,9 @@
       <c r="A75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="7">
-        <f>B15*[1]Display!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="7">
-        <f>C15*[1]Display!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="7">
-        <f>D15*[1]Display!D15</f>
-        <v>0</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -9444,18 +8167,9 @@
       <c r="A76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="7">
-        <f>B16*[1]Display!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="7">
-        <f>C16*[1]Display!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="7">
-        <f>D16*[1]Display!D16</f>
-        <v>0</v>
-      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -9492,18 +8206,9 @@
       <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="7">
-        <f>B17*[1]Display!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C77" s="7">
-        <f>C17*[1]Display!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="7">
-        <f>D17*[1]Display!D17</f>
-        <v>0</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -9540,18 +8245,9 @@
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="7">
-        <f>B18*[1]Display!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="7">
-        <f>C18*[1]Display!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="7">
-        <f>D18*[1]Display!D18</f>
-        <v>0</v>
-      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -9588,18 +8284,9 @@
       <c r="A79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
-        <f>B19*[1]Display!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="7">
-        <f>C19*[1]Display!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="7">
-        <f>D19*[1]Display!D19</f>
-        <v>0</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -9636,18 +8323,9 @@
       <c r="A80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="7">
-        <f>B20*[1]Display!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="7">
-        <f>C20*[1]Display!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="7">
-        <f>D20*[1]Display!D20</f>
-        <v>0</v>
-      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -9684,18 +8362,9 @@
       <c r="A81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="7">
-        <f>B21*[1]Display!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="7">
-        <f>C21*[1]Display!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="7">
-        <f>D21*[1]Display!D21</f>
-        <v>0</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -9732,18 +8401,9 @@
       <c r="A82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="7">
-        <f>B22*[1]Display!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="7">
-        <f>C22*[1]Display!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="7">
-        <f>D22*[1]Display!D22</f>
-        <v>0</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -9780,18 +8440,9 @@
       <c r="A83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="7">
-        <f>B23*[1]Display!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="7">
-        <f>C23*[1]Display!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="7">
-        <f>D23*[1]Display!D23</f>
-        <v>0</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -9828,18 +8479,9 @@
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="7">
-        <f>B24*[1]Display!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="7">
-        <f>C24*[1]Display!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="7">
-        <f>D24*[1]Display!D24</f>
-        <v>0</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -9876,18 +8518,9 @@
       <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="7">
-        <f>B25*[1]Display!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="7">
-        <f>C25*[1]Display!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="7">
-        <f>D25*[1]Display!D25</f>
-        <v>0</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -9924,18 +8557,9 @@
       <c r="A86" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="7">
-        <f>B26*[1]Display!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="7">
-        <f>C26*[1]Display!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="7">
-        <f>D26*[1]Display!D26</f>
-        <v>0</v>
-      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -9972,18 +8596,9 @@
       <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="7">
-        <f>B27*[1]Display!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="7">
-        <f>C27*[1]Display!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="7">
-        <f>D27*[1]Display!D27</f>
-        <v>0</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -10020,18 +8635,9 @@
       <c r="A88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="7">
-        <f>B28*[1]Display!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="7">
-        <f>C28*[1]Display!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="7">
-        <f>D28*[1]Display!D28</f>
-        <v>0</v>
-      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -10068,18 +8674,9 @@
       <c r="A89" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="7">
-        <f>B29*[1]Display!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="7">
-        <f>C29*[1]Display!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="7">
-        <f>D29*[1]Display!D29</f>
-        <v>0</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -10116,18 +8713,9 @@
       <c r="A90" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="7">
-        <f>B30*[1]Display!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="7">
-        <f>C30*[1]Display!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="7">
-        <f>D30*[1]Display!D30</f>
-        <v>0</v>
-      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -10164,18 +8752,9 @@
       <c r="A91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="7">
-        <f>B31*[1]Display!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="7">
-        <f>C31*[1]Display!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="7">
-        <f>D31*[1]Display!D31</f>
-        <v>0</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -10212,18 +8791,9 @@
       <c r="A92" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="7">
-        <f>B32*[1]Display!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="7">
-        <f>C32*[1]Display!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="7">
-        <f>D32*[1]Display!D32</f>
-        <v>0</v>
-      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -10260,18 +8830,9 @@
       <c r="A93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="7">
-        <f>B33*[1]Display!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="7">
-        <f>C33*[1]Display!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="7">
-        <f>D33*[1]Display!D33</f>
-        <v>0</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -10308,18 +8869,9 @@
       <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="7">
-        <f>B34*[1]Display!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="7">
-        <f>C34*[1]Display!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="7">
-        <f>D34*[1]Display!D34</f>
-        <v>0</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -10356,18 +8908,9 @@
       <c r="A95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="7">
-        <f>B35*[1]Display!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="7">
-        <f>C35*[1]Display!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="7">
-        <f>D35*[1]Display!D35</f>
-        <v>0</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -10404,18 +8947,9 @@
       <c r="A96" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="7">
-        <f>B36*[1]Display!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="7">
-        <f>C36*[1]Display!C36</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="7">
-        <f>D36*[1]Display!D36</f>
-        <v>0</v>
-      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -10452,18 +8986,9 @@
       <c r="A97" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="7">
-        <f>B37*[1]Display!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="7">
-        <f>C37*[1]Display!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="7">
-        <f>D37*[1]Display!D37</f>
-        <v>0</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -10500,18 +9025,9 @@
       <c r="A98" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="7">
-        <f>B38*[1]Display!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="7">
-        <f>C38*[1]Display!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="7">
-        <f>D38*[1]Display!D38</f>
-        <v>0</v>
-      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -10548,18 +9064,9 @@
       <c r="A99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="7">
-        <f>B39*[1]Display!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="7">
-        <f>C39*[1]Display!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="7">
-        <f>D39*[1]Display!D39</f>
-        <v>0</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -10596,18 +9103,9 @@
       <c r="A100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="7">
-        <f>B40*[1]Display!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="7">
-        <f>C40*[1]Display!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="7">
-        <f>D40*[1]Display!D40</f>
-        <v>0</v>
-      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -10644,18 +9142,9 @@
       <c r="A101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="7">
-        <f>B41*[1]Display!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="7">
-        <f>C41*[1]Display!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="7">
-        <f>D41*[1]Display!D41</f>
-        <v>0</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -10692,18 +9181,9 @@
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="7">
-        <f>B42*[1]Display!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="7">
-        <f>C42*[1]Display!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="7">
-        <f>D42*[1]Display!D42</f>
-        <v>0</v>
-      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -10740,18 +9220,9 @@
       <c r="A103" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="7">
-        <f>B43*[1]Display!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="7">
-        <f>C43*[1]Display!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="7">
-        <f>D43*[1]Display!D43</f>
-        <v>0</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -10788,18 +9259,9 @@
       <c r="A104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="7">
-        <f>B44*[1]Display!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="7">
-        <f>C44*[1]Display!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <f>D44*[1]Display!D44</f>
-        <v>0</v>
-      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -10836,18 +9298,9 @@
       <c r="A105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="7">
-        <f>B45*[1]Display!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="7">
-        <f>C45*[1]Display!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="7">
-        <f>D45*[1]Display!D45</f>
-        <v>0</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -10884,18 +9337,9 @@
       <c r="A106" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B106" s="7">
-        <f>B46*[1]Display!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="7">
-        <f>C46*[1]Display!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="7">
-        <f>D46*[1]Display!D46</f>
-        <v>0</v>
-      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -10932,18 +9376,9 @@
       <c r="A107" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="7">
-        <f>B47*[1]Display!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="7">
-        <f>C47*[1]Display!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="7">
-        <f>D47*[1]Display!D47</f>
-        <v>0</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -10980,18 +9415,9 @@
       <c r="A108" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="7">
-        <f>B48*[1]Display!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C108" s="7">
-        <f>C48*[1]Display!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D108" s="7">
-        <f>D48*[1]Display!D48</f>
-        <v>0</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -11028,18 +9454,9 @@
       <c r="A109" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="7">
-        <f>B49*[1]Display!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="7">
-        <f>C49*[1]Display!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D109" s="7">
-        <f>D49*[1]Display!D49</f>
-        <v>0</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -11076,18 +9493,9 @@
       <c r="A110" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="7">
-        <f>B50*[1]Display!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="7">
-        <f>C50*[1]Display!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="7">
-        <f>D50*[1]Display!D50</f>
-        <v>0</v>
-      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -11124,18 +9532,9 @@
       <c r="A111" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="7">
-        <f>B51*[1]Display!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C111" s="7">
-        <f>C51*[1]Display!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="7">
-        <f>D51*[1]Display!D51</f>
-        <v>0</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -11172,18 +9571,9 @@
       <c r="A112" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="7">
-        <f>B52*[1]Display!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C112" s="7">
-        <f>C52*[1]Display!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="7">
-        <f>D52*[1]Display!D52</f>
-        <v>0</v>
-      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
@@ -11220,18 +9610,9 @@
       <c r="A113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="7">
-        <f>B53*[1]Display!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="7">
-        <f>C53*[1]Display!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="7">
-        <f>D53*[1]Display!D53</f>
-        <v>0</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -11268,18 +9649,9 @@
       <c r="A114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="7">
-        <f>B54*[1]Display!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C114" s="7">
-        <f>C54*[1]Display!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="7">
-        <f>D54*[1]Display!D54</f>
-        <v>0</v>
-      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -11316,18 +9688,9 @@
       <c r="A115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="7">
-        <f>B55*[1]Display!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="7">
-        <f>C55*[1]Display!C55</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="7">
-        <f>D55*[1]Display!D55</f>
-        <v>0</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -11364,18 +9727,9 @@
       <c r="A116" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="7">
-        <f>B56*[1]Display!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="7">
-        <f>C56*[1]Display!C56</f>
-        <v>0</v>
-      </c>
-      <c r="D116" s="7">
-        <f>D56*[1]Display!D56</f>
-        <v>0</v>
-      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -11412,18 +9766,9 @@
       <c r="A117" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="7">
-        <f>B57*[1]Display!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="7">
-        <f>C57*[1]Display!C57</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="7">
-        <f>D57*[1]Display!D57</f>
-        <v>0</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -11460,18 +9805,9 @@
       <c r="A118" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B118" s="7">
-        <f>B58*[1]Display!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="7">
-        <f>C58*[1]Display!C58</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="7">
-        <f>D58*[1]Display!D58</f>
-        <v>0</v>
-      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -11521,10 +9857,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63:AE118"/>
+      <selection pane="topRight" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13888,18 +12224,9 @@
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="7">
-        <f>B3*[1]Display!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="7">
-        <f>C3*[1]Display!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="7">
-        <f>D3*[1]Display!D3</f>
-        <v>0</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -13936,18 +12263,9 @@
       <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="7">
-        <f>B4*[1]Display!B4</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="7">
-        <f>C4*[1]Display!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="7">
-        <f>D4*[1]Display!D4</f>
-        <v>0</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -13984,18 +12302,9 @@
       <c r="A65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="7">
-        <f>B5*[1]Display!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="7">
-        <f>C5*[1]Display!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
-        <f>D5*[1]Display!D5</f>
-        <v>0</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -14032,18 +12341,9 @@
       <c r="A66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="7">
-        <f>B6*[1]Display!B6</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="7">
-        <f>C6*[1]Display!C6</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="7">
-        <f>D6*[1]Display!D6</f>
-        <v>0</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -14080,18 +12380,9 @@
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="7">
-        <f>B7*[1]Display!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="7">
-        <f>C7*[1]Display!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="7">
-        <f>D7*[1]Display!D7</f>
-        <v>0</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -14128,18 +12419,9 @@
       <c r="A68" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="7">
-        <f>B8*[1]Display!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="7">
-        <f>C8*[1]Display!C8</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="7">
-        <f>D8*[1]Display!D8</f>
-        <v>0</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -14176,18 +12458,9 @@
       <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="7">
-        <f>B9*[1]Display!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="7">
-        <f>C9*[1]Display!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="7">
-        <f>D9*[1]Display!D9</f>
-        <v>0</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -14224,18 +12497,9 @@
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="7">
-        <f>B10*[1]Display!B10</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="7">
-        <f>C10*[1]Display!C10</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="7">
-        <f>D10*[1]Display!D10</f>
-        <v>0</v>
-      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -14272,18 +12536,9 @@
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7">
-        <f>B11*[1]Display!B11</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="7">
-        <f>C11*[1]Display!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="7">
-        <f>D11*[1]Display!D11</f>
-        <v>0</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -14320,18 +12575,9 @@
       <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="7">
-        <f>B12*[1]Display!B12</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="7">
-        <f>C12*[1]Display!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="7">
-        <f>D12*[1]Display!D12</f>
-        <v>0</v>
-      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -14368,18 +12614,9 @@
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="7">
-        <f>B13*[1]Display!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="7">
-        <f>C13*[1]Display!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="7">
-        <f>D13*[1]Display!D13</f>
-        <v>0</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -14416,18 +12653,9 @@
       <c r="A74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="7">
-        <f>B14*[1]Display!B14</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="7">
-        <f>C14*[1]Display!C14</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="7">
-        <f>D14*[1]Display!D14</f>
-        <v>0</v>
-      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -14464,18 +12692,9 @@
       <c r="A75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="7">
-        <f>B15*[1]Display!B15</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="7">
-        <f>C15*[1]Display!C15</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="7">
-        <f>D15*[1]Display!D15</f>
-        <v>0</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -14512,18 +12731,9 @@
       <c r="A76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="7">
-        <f>B16*[1]Display!B16</f>
-        <v>0</v>
-      </c>
-      <c r="C76" s="7">
-        <f>C16*[1]Display!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="7">
-        <f>D16*[1]Display!D16</f>
-        <v>0</v>
-      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -14560,18 +12770,9 @@
       <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="7">
-        <f>B17*[1]Display!B17</f>
-        <v>0</v>
-      </c>
-      <c r="C77" s="7">
-        <f>C17*[1]Display!C17</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="7">
-        <f>D17*[1]Display!D17</f>
-        <v>0</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -14608,18 +12809,9 @@
       <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="7">
-        <f>B18*[1]Display!B18</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="7">
-        <f>C18*[1]Display!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="7">
-        <f>D18*[1]Display!D18</f>
-        <v>0</v>
-      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -14656,18 +12848,9 @@
       <c r="A79" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="7">
-        <f>B19*[1]Display!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C79" s="7">
-        <f>C19*[1]Display!C19</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="7">
-        <f>D19*[1]Display!D19</f>
-        <v>0</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -14704,18 +12887,9 @@
       <c r="A80" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="7">
-        <f>B20*[1]Display!B20</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="7">
-        <f>C20*[1]Display!C20</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="7">
-        <f>D20*[1]Display!D20</f>
-        <v>0</v>
-      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -14752,18 +12926,9 @@
       <c r="A81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="7">
-        <f>B21*[1]Display!B21</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="7">
-        <f>C21*[1]Display!C21</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="7">
-        <f>D21*[1]Display!D21</f>
-        <v>0</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -14800,18 +12965,9 @@
       <c r="A82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="7">
-        <f>B22*[1]Display!B22</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="7">
-        <f>C22*[1]Display!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="7">
-        <f>D22*[1]Display!D22</f>
-        <v>0</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -14848,18 +13004,9 @@
       <c r="A83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="7">
-        <f>B23*[1]Display!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="7">
-        <f>C23*[1]Display!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="7">
-        <f>D23*[1]Display!D23</f>
-        <v>0</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -14896,18 +13043,9 @@
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="7">
-        <f>B24*[1]Display!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="7">
-        <f>C24*[1]Display!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="7">
-        <f>D24*[1]Display!D24</f>
-        <v>0</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -14944,18 +13082,9 @@
       <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="7">
-        <f>B25*[1]Display!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="7">
-        <f>C25*[1]Display!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="7">
-        <f>D25*[1]Display!D25</f>
-        <v>0</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -14992,18 +13121,9 @@
       <c r="A86" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="7">
-        <f>B26*[1]Display!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="7">
-        <f>C26*[1]Display!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="7">
-        <f>D26*[1]Display!D26</f>
-        <v>0</v>
-      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -15040,18 +13160,9 @@
       <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="7">
-        <f>B27*[1]Display!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="7">
-        <f>C27*[1]Display!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="7">
-        <f>D27*[1]Display!D27</f>
-        <v>0</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -15088,18 +13199,9 @@
       <c r="A88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="7">
-        <f>B28*[1]Display!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="7">
-        <f>C28*[1]Display!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="7">
-        <f>D28*[1]Display!D28</f>
-        <v>0</v>
-      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
@@ -15136,18 +13238,9 @@
       <c r="A89" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="7">
-        <f>B29*[1]Display!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="7">
-        <f>C29*[1]Display!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="7">
-        <f>D29*[1]Display!D29</f>
-        <v>0</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
@@ -15184,18 +13277,9 @@
       <c r="A90" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="7">
-        <f>B30*[1]Display!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="7">
-        <f>C30*[1]Display!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="7">
-        <f>D30*[1]Display!D30</f>
-        <v>0</v>
-      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -15232,18 +13316,9 @@
       <c r="A91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="7">
-        <f>B31*[1]Display!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="7">
-        <f>C31*[1]Display!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="7">
-        <f>D31*[1]Display!D31</f>
-        <v>0</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -15280,18 +13355,9 @@
       <c r="A92" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="7">
-        <f>B32*[1]Display!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="7">
-        <f>C32*[1]Display!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="7">
-        <f>D32*[1]Display!D32</f>
-        <v>0</v>
-      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -15328,18 +13394,9 @@
       <c r="A93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="7">
-        <f>B33*[1]Display!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="7">
-        <f>C33*[1]Display!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="7">
-        <f>D33*[1]Display!D33</f>
-        <v>0</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -15376,18 +13433,9 @@
       <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="7">
-        <f>B34*[1]Display!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="7">
-        <f>C34*[1]Display!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="7">
-        <f>D34*[1]Display!D34</f>
-        <v>0</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
@@ -15424,18 +13472,9 @@
       <c r="A95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="7">
-        <f>B35*[1]Display!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="7">
-        <f>C35*[1]Display!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="7">
-        <f>D35*[1]Display!D35</f>
-        <v>0</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -15472,18 +13511,9 @@
       <c r="A96" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="7">
-        <f>B36*[1]Display!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="7">
-        <f>C36*[1]Display!C36</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="7">
-        <f>D36*[1]Display!D36</f>
-        <v>0</v>
-      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -15520,18 +13550,9 @@
       <c r="A97" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="7">
-        <f>B37*[1]Display!B37</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="7">
-        <f>C37*[1]Display!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="7">
-        <f>D37*[1]Display!D37</f>
-        <v>0</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -15568,18 +13589,9 @@
       <c r="A98" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="7">
-        <f>B38*[1]Display!B38</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="7">
-        <f>C38*[1]Display!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="7">
-        <f>D38*[1]Display!D38</f>
-        <v>0</v>
-      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -15616,18 +13628,9 @@
       <c r="A99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="7">
-        <f>B39*[1]Display!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="7">
-        <f>C39*[1]Display!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="7">
-        <f>D39*[1]Display!D39</f>
-        <v>0</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -15664,18 +13667,9 @@
       <c r="A100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="7">
-        <f>B40*[1]Display!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="7">
-        <f>C40*[1]Display!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="7">
-        <f>D40*[1]Display!D40</f>
-        <v>0</v>
-      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -15712,18 +13706,9 @@
       <c r="A101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="7">
-        <f>B41*[1]Display!B41</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="7">
-        <f>C41*[1]Display!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="7">
-        <f>D41*[1]Display!D41</f>
-        <v>0</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -15760,18 +13745,9 @@
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="7">
-        <f>B42*[1]Display!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="7">
-        <f>C42*[1]Display!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="7">
-        <f>D42*[1]Display!D42</f>
-        <v>0</v>
-      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -15808,18 +13784,9 @@
       <c r="A103" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="7">
-        <f>B43*[1]Display!B43</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="7">
-        <f>C43*[1]Display!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="7">
-        <f>D43*[1]Display!D43</f>
-        <v>0</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -15856,18 +13823,9 @@
       <c r="A104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="7">
-        <f>B44*[1]Display!B44</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="7">
-        <f>C44*[1]Display!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <f>D44*[1]Display!D44</f>
-        <v>0</v>
-      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -15904,18 +13862,9 @@
       <c r="A105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="7">
-        <f>B45*[1]Display!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="7">
-        <f>C45*[1]Display!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="7">
-        <f>D45*[1]Display!D45</f>
-        <v>0</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -15952,18 +13901,9 @@
       <c r="A106" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B106" s="7">
-        <f>B46*[1]Display!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="7">
-        <f>C46*[1]Display!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="7">
-        <f>D46*[1]Display!D46</f>
-        <v>0</v>
-      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -16000,18 +13940,9 @@
       <c r="A107" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="7">
-        <f>B47*[1]Display!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="7">
-        <f>C47*[1]Display!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="7">
-        <f>D47*[1]Display!D47</f>
-        <v>0</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -16048,18 +13979,9 @@
       <c r="A108" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="7">
-        <f>B48*[1]Display!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C108" s="7">
-        <f>C48*[1]Display!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D108" s="7">
-        <f>D48*[1]Display!D48</f>
-        <v>0</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
@@ -16096,18 +14018,9 @@
       <c r="A109" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="7">
-        <f>B49*[1]Display!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="7">
-        <f>C49*[1]Display!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D109" s="7">
-        <f>D49*[1]Display!D49</f>
-        <v>0</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
@@ -16144,18 +14057,9 @@
       <c r="A110" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="7">
-        <f>B50*[1]Display!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="7">
-        <f>C50*[1]Display!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="7">
-        <f>D50*[1]Display!D50</f>
-        <v>0</v>
-      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
@@ -16192,18 +14096,9 @@
       <c r="A111" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="7">
-        <f>B51*[1]Display!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C111" s="7">
-        <f>C51*[1]Display!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="7">
-        <f>D51*[1]Display!D51</f>
-        <v>0</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
@@ -16240,18 +14135,9 @@
       <c r="A112" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="7">
-        <f>B52*[1]Display!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C112" s="7">
-        <f>C52*[1]Display!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="7">
-        <f>D52*[1]Display!D52</f>
-        <v>0</v>
-      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
@@ -16288,18 +14174,9 @@
       <c r="A113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="7">
-        <f>B53*[1]Display!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="7">
-        <f>C53*[1]Display!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="7">
-        <f>D53*[1]Display!D53</f>
-        <v>0</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -16336,18 +14213,9 @@
       <c r="A114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="7">
-        <f>B54*[1]Display!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C114" s="7">
-        <f>C54*[1]Display!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="7">
-        <f>D54*[1]Display!D54</f>
-        <v>0</v>
-      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -16384,18 +14252,9 @@
       <c r="A115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="7">
-        <f>B55*[1]Display!B55</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="7">
-        <f>C55*[1]Display!C55</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="7">
-        <f>D55*[1]Display!D55</f>
-        <v>0</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
@@ -16432,18 +14291,9 @@
       <c r="A116" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="7">
-        <f>B56*[1]Display!B56</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="7">
-        <f>C56*[1]Display!C56</f>
-        <v>0</v>
-      </c>
-      <c r="D116" s="7">
-        <f>D56*[1]Display!D56</f>
-        <v>0</v>
-      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -16480,18 +14330,9 @@
       <c r="A117" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B117" s="7">
-        <f>B57*[1]Display!B57</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="7">
-        <f>C57*[1]Display!C57</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="7">
-        <f>D57*[1]Display!D57</f>
-        <v>0</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
@@ -16528,18 +14369,9 @@
       <c r="A118" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B118" s="7">
-        <f>B58*[1]Display!B58</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="7">
-        <f>C58*[1]Display!C58</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="7">
-        <f>D58*[1]Display!D58</f>
-        <v>0</v>
-      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -31244,7 +29076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
